--- a/biology/Zoologie/Iblomorpha/Iblomorpha.xlsx
+++ b/biology/Zoologie/Iblomorpha/Iblomorpha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Iblomorpha sont un ordre de crustacés cirripèdes du super-ordre des Phosphatothoracica. 
 </t>
@@ -511,11 +523,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ordre des Pedunculata décrit par Lamarck est désormais obsolète, et a été divisé en quatre ordres, dont celui des Iblomorpha.
-Pour le WoRMS, l'ordre des Iblomorpha a été créé en 2006 par les biologistes américains John Stewart Buckeridge (d) et William Anderson Newman (d)[1],[2].
-Pour d'autres sources comme l’ITIS, cet ordre a été créé en 1987 par William Anderson Newman[3].
+Pour le WoRMS, l'ordre des Iblomorpha a été créé en 2006 par les biologistes américains John Stewart Buckeridge (d) et William Anderson Newman (d),.
+Pour d'autres sources comme l’ITIS, cet ordre a été créé en 1987 par William Anderson Newman.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (2 octobre 2021)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (2 octobre 2021) :
 famille Iblidae Leach, 1825
 famille Idioiblidae Buckeridge &amp; Newman, 2006</t>
         </is>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) John S. Buckeridge et William A. Newman, « A revision of the Iblidae and the stalked barnacles (Crustacea: Cirripedia: Thoracica), including new ordinal, familial and generic taxa, and two new species from New Zealand and Tasmanian waters », Zootaxa, Magnolia Press (d), vol. 1136, no 1,‎ 27 février 2006, p. 1-38 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, DOI 10.11646/ZOOTAXA.1136.1.1, lire en ligne)</t>
         </is>
